--- a/Excel2Json/Test/medal_unlock.xlsx
+++ b/Excel2Json/Test/medal_unlock.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[100]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -631,13 +631,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -658,13 +658,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -685,13 +685,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -717,12 +717,12 @@
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
